--- a/metrics/transfer_time/cleaned_data/nginx_05.vda.xlsx
+++ b/metrics/transfer_time/cleaned_data/nginx_05.vda.xlsx
@@ -6333,16 +6333,36 @@
       <c r="B144" t="n">
         <v>0</v>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="C144" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K144" t="n">
+        <v>11</v>
+      </c>
+      <c r="L144" t="n">
+        <v>41.5</v>
+      </c>
       <c r="M144" t="n">
         <v>0</v>
       </c>
